--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H2">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I2">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J2">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>1716.766827818963</v>
+        <v>2186.953936616218</v>
       </c>
       <c r="R2">
-        <v>15450.90145037067</v>
+        <v>19682.58542954596</v>
       </c>
       <c r="S2">
-        <v>0.02080151675420503</v>
+        <v>0.02800252777410015</v>
       </c>
       <c r="T2">
-        <v>0.0246921141414147</v>
+        <v>0.03261180473752674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H3">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I3">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J3">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>1837.187784094153</v>
+        <v>2653.040037389793</v>
       </c>
       <c r="R3">
-        <v>16534.69005684738</v>
+        <v>23877.36033650814</v>
       </c>
       <c r="S3">
-        <v>0.02226061911972435</v>
+        <v>0.03397045821996415</v>
       </c>
       <c r="T3">
-        <v>0.02642411871488544</v>
+        <v>0.03956206951211143</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H4">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I4">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J4">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>922.5120058178247</v>
+        <v>1497.772575262587</v>
       </c>
       <c r="R4">
-        <v>8302.608052360421</v>
+        <v>13479.95317736329</v>
       </c>
       <c r="S4">
-        <v>0.01117778409625606</v>
+        <v>0.01917800710652841</v>
       </c>
       <c r="T4">
-        <v>0.01326841326111715</v>
+        <v>0.02233474877905384</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H5">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I5">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J5">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>2102.265757726607</v>
+        <v>1633.433874568008</v>
       </c>
       <c r="R5">
-        <v>12613.59454635964</v>
+        <v>9800.603247408051</v>
       </c>
       <c r="S5">
-        <v>0.02547248448218094</v>
+        <v>0.02091506212084132</v>
       </c>
       <c r="T5">
-        <v>0.020157808738387</v>
+        <v>0.01623848455064547</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H6">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I6">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J6">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>1053.976032422576</v>
+        <v>1611.32138565706</v>
       </c>
       <c r="R6">
-        <v>9485.784291803182</v>
+        <v>14501.89247091354</v>
       </c>
       <c r="S6">
-        <v>0.0127706918270445</v>
+        <v>0.02063192603163709</v>
       </c>
       <c r="T6">
-        <v>0.01515924939437263</v>
+        <v>0.02402798592079837</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>172.32992</v>
       </c>
       <c r="I7">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J7">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>7939.761305988836</v>
+        <v>7003.98994585696</v>
       </c>
       <c r="R7">
-        <v>71457.85175389954</v>
+        <v>63035.90951271264</v>
       </c>
       <c r="S7">
-        <v>0.09620355843008632</v>
+        <v>0.08968155190860606</v>
       </c>
       <c r="T7">
-        <v>0.1141969248509606</v>
+        <v>0.1044433303662999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>172.32992</v>
       </c>
       <c r="I8">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J8">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>8496.688218584535</v>
+        <v>8496.688218584533</v>
       </c>
       <c r="R8">
-        <v>76470.19396726081</v>
+        <v>76470.1939672608</v>
       </c>
       <c r="S8">
-        <v>0.1029516644136723</v>
+        <v>0.1087945858598741</v>
       </c>
       <c r="T8">
-        <v>0.1222071581985546</v>
+        <v>0.1267024112674527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>172.32992</v>
       </c>
       <c r="I9">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J9">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>4266.464734414649</v>
+        <v>4796.801561605263</v>
       </c>
       <c r="R9">
-        <v>38398.18260973184</v>
+        <v>43171.21405444737</v>
       </c>
       <c r="S9">
-        <v>0.05169539404888245</v>
+        <v>0.06141993514665883</v>
       </c>
       <c r="T9">
-        <v>0.06136420653952445</v>
+        <v>0.07152979003013452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>172.32992</v>
       </c>
       <c r="I10">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J10">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>9722.629799009123</v>
+        <v>5231.273619049334</v>
       </c>
       <c r="R10">
-        <v>58335.77879405473</v>
+        <v>31387.64171429601</v>
       </c>
       <c r="S10">
-        <v>0.1178060080039877</v>
+        <v>0.06698306825703082</v>
       </c>
       <c r="T10">
-        <v>0.09322651582096281</v>
+        <v>0.05200575129837925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>172.32992</v>
       </c>
       <c r="I11">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J11">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>4874.464012273459</v>
+        <v>5160.4556436832</v>
       </c>
       <c r="R11">
-        <v>43870.17611046113</v>
+        <v>46444.10079314881</v>
       </c>
       <c r="S11">
-        <v>0.05906232761259311</v>
+        <v>0.0660762899802263</v>
       </c>
       <c r="T11">
-        <v>0.07010900945831114</v>
+        <v>0.07695259099460285</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H12">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I12">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J12">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>2297.997985193918</v>
+        <v>1173.71936880266</v>
       </c>
       <c r="R12">
-        <v>20681.98186674526</v>
+        <v>10563.47431922394</v>
       </c>
       <c r="S12">
-        <v>0.02784410952934693</v>
+        <v>0.01502871581957034</v>
       </c>
       <c r="T12">
-        <v>0.03305191341519377</v>
+        <v>0.01750247512358218</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H13">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I13">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J13">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>2459.188841407673</v>
+        <v>1423.863770496866</v>
       </c>
       <c r="R13">
-        <v>22132.69957266906</v>
+        <v>12814.7739344718</v>
       </c>
       <c r="S13">
-        <v>0.02979720778463816</v>
+        <v>0.01823165276245617</v>
       </c>
       <c r="T13">
-        <v>0.03537030806010831</v>
+        <v>0.02123262245208922</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H14">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I14">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J14">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>1234.839056961387</v>
+        <v>803.8416594942845</v>
       </c>
       <c r="R14">
-        <v>11113.55151265249</v>
+        <v>7234.57493544856</v>
       </c>
       <c r="S14">
-        <v>0.0149621514791045</v>
+        <v>0.01029267147290519</v>
       </c>
       <c r="T14">
-        <v>0.01776058719605152</v>
+        <v>0.01198686757887457</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H15">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I15">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J15">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>2814.012012181859</v>
+        <v>876.6499120714168</v>
       </c>
       <c r="R15">
-        <v>16884.07207309116</v>
+        <v>5259.8994724285</v>
       </c>
       <c r="S15">
-        <v>0.03409648711135736</v>
+        <v>0.0112249339594802</v>
       </c>
       <c r="T15">
-        <v>0.02698246676025738</v>
+        <v>0.008715054998636689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H16">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I16">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J16">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>1410.811741992237</v>
+        <v>864.7823294522</v>
       </c>
       <c r="R16">
-        <v>12697.30567793014</v>
+        <v>7783.0409650698</v>
       </c>
       <c r="S16">
-        <v>0.01709435644522799</v>
+        <v>0.01107297725552684</v>
       </c>
       <c r="T16">
-        <v>0.02029158765234131</v>
+        <v>0.01289561339009939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H17">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I17">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J17">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>4032.005179001193</v>
+        <v>4791.560035620972</v>
       </c>
       <c r="R17">
-        <v>24192.03107400716</v>
+        <v>28749.36021372583</v>
       </c>
       <c r="S17">
-        <v>0.04885452230608875</v>
+        <v>0.06135282080350955</v>
       </c>
       <c r="T17">
-        <v>0.0386613295354172</v>
+        <v>0.0476344190134413</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H18">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I18">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J18">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>4314.826300363775</v>
+        <v>5812.742739213043</v>
       </c>
       <c r="R18">
-        <v>25888.95780218265</v>
+        <v>34876.45643527826</v>
       </c>
       <c r="S18">
-        <v>0.05228137573728003</v>
+        <v>0.07442840348542581</v>
       </c>
       <c r="T18">
-        <v>0.04137319127347271</v>
+        <v>0.05778632036301492</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H19">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I19">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J19">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>2166.615247263203</v>
+        <v>3281.581332792714</v>
       </c>
       <c r="R19">
-        <v>12999.69148357922</v>
+        <v>19689.48799675628</v>
       </c>
       <c r="S19">
-        <v>0.0262521867475262</v>
+        <v>0.0420185221444024</v>
       </c>
       <c r="T19">
-        <v>0.02077483096677276</v>
+        <v>0.03262324150607812</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H20">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I20">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J20">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>4937.389449421721</v>
+        <v>3578.811763323881</v>
       </c>
       <c r="R20">
-        <v>19749.55779768688</v>
+        <v>14315.24705329552</v>
       </c>
       <c r="S20">
-        <v>0.0598247750887994</v>
+        <v>0.04582436516967201</v>
       </c>
       <c r="T20">
-        <v>0.03156180478850004</v>
+        <v>0.02371873569875306</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H21">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I21">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J21">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>2475.37216610239</v>
+        <v>3530.363866740494</v>
       </c>
       <c r="R21">
-        <v>14852.23299661434</v>
+        <v>21182.18320044297</v>
       </c>
       <c r="S21">
-        <v>0.02999329597455476</v>
+        <v>0.04520402125343383</v>
       </c>
       <c r="T21">
-        <v>0.02373538097989026</v>
+        <v>0.03509646763226575</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H22">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I22">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J22">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>2576.502346894204</v>
+        <v>2667.655429620198</v>
       </c>
       <c r="R22">
-        <v>23188.52112204784</v>
+        <v>24008.89886658179</v>
       </c>
       <c r="S22">
-        <v>0.03121865815887031</v>
+        <v>0.03415759884510898</v>
       </c>
       <c r="T22">
-        <v>0.03705761842798336</v>
+        <v>0.03978001389109449</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H23">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I23">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J23">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>2757.228623422067</v>
+        <v>3236.189177213862</v>
       </c>
       <c r="R23">
-        <v>24815.0576107986</v>
+        <v>29125.70259492477</v>
       </c>
       <c r="S23">
-        <v>0.03340846087884449</v>
+        <v>0.0414373050112744</v>
       </c>
       <c r="T23">
-        <v>0.03965698939442274</v>
+        <v>0.04825797552201318</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H24">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I24">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J24">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>1384.494568227031</v>
+        <v>1826.989163254898</v>
       </c>
       <c r="R24">
-        <v>12460.45111404328</v>
+        <v>16442.90246929408</v>
       </c>
       <c r="S24">
-        <v>0.01677547963439414</v>
+        <v>0.02339341214757522</v>
       </c>
       <c r="T24">
-        <v>0.0199130699363883</v>
+        <v>0.02724401865630234</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H25">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I25">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J25">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>3155.05435613479</v>
+        <v>1992.469375536546</v>
       </c>
       <c r="R25">
-        <v>18930.32613680874</v>
+        <v>11954.81625321927</v>
       </c>
       <c r="S25">
-        <v>0.03822878854954565</v>
+        <v>0.02551227901664636</v>
       </c>
       <c r="T25">
-        <v>0.03025258915835449</v>
+        <v>0.01980777041301487</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H26">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I26">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J26">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>1581.794147640283</v>
+        <v>1965.49647038383</v>
       </c>
       <c r="R26">
-        <v>14236.14732876254</v>
+        <v>17689.46823345447</v>
       </c>
       <c r="S26">
-        <v>0.01916609578578866</v>
+        <v>0.02516690844754523</v>
       </c>
       <c r="T26">
-        <v>0.02275081333635505</v>
+        <v>0.02930943630373496</v>
       </c>
     </row>
   </sheetData>
